--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_26_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_26_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56864.17684273108</v>
+        <v>11291226.88397716</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56864.17684273108</v>
+        <v>11291226.88397716</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>487.4021377786027</v>
+        <v>89397.07685865012</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>487.4021377786027</v>
+        <v>89397.07685865012</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1190068703.451655</v>
+        <v>49678314.8362212</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10778.01662274509</v>
+        <v>1222444.483043884</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19984.853397708</v>
+        <v>2198461.689301644</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29191.69017267091</v>
+        <v>3174478.895559406</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38424.9684443851</v>
+        <v>4150504.131683846</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47658.30474660613</v>
+        <v>5126521.337941608</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56891.64104882715</v>
+        <v>6102538.544199369</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66124.97735104818</v>
+        <v>7078555.750457126</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75358.31365326919</v>
+        <v>8054572.956714883</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84607.61680393263</v>
+        <v>9021925.357816204</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>93857.52246571552</v>
+        <v>9999688.677955</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>103090.8587679365</v>
+        <v>10975705.88421276</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>112324.1950701575</v>
+        <v>11951723.09047053</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121557.5313723786</v>
+        <v>12927740.2967283</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>130806.8345230418</v>
+        <v>13895092.69782971</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140081.8559959004</v>
+        <v>14855473.20370704</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>388</v>
@@ -27052,13 +27052,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>380</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
